--- a/Meetings/Open Event Meeting Setup/Main.rvl.xlsx
+++ b/Meetings/Open Event Meeting Setup/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="60">
   <si>
     <t>Flow</t>
   </si>
@@ -181,6 +181,18 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>UX_Grid</t>
+  </si>
+  <si>
+    <t>Search for TUXr Meeting and open the record.</t>
+  </si>
+  <si>
+    <t>****Test opens the TUXr Meeting</t>
+  </si>
+  <si>
+    <t>****Test opens the Meeting Setup for TUXr Meeting</t>
   </si>
 </sst>
 </file>
@@ -201,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="179">
+  <borders count="181">
     <border>
       <left/>
       <right/>
@@ -387,11 +399,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -571,6 +585,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="178" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="179" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="180" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -653,125 +669,107 @@
       <c r="A5" s="174"/>
     </row>
     <row r="6">
-      <c r="A6" s="173" t="s">
-        <v>15</v>
-      </c>
+      <c r="A6" s="179"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="180"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="173" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="172"/>
-      <c r="B7" t="s">
+    <row r="9">
+      <c r="A9" s="172"/>
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F9" t="s">
         <v>22</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="171"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="170" t="s">
+    <row r="10">
+      <c r="A10" s="171"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="169"/>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="168"/>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="12">
-      <c r="A12" s="167"/>
+      <c r="A12" s="169"/>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="166"/>
+      <c r="A13" s="168"/>
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -779,7 +777,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
         <v>31</v>
@@ -788,11 +786,11 @@
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="165"/>
+      <c r="A14" s="167"/>
       <c r="B14" t="s">
         <v>3</v>
       </c>
@@ -800,235 +798,277 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="164"/>
+      <c r="A15" s="166"/>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="165"/>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="164"/>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
         <v>41</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E17" t="s">
         <v>42</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F17" t="s">
         <v>43</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="33" t="s">
+    <row r="18">
+      <c r="A18" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B18" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="36" t="s">
+      <c r="C18" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E18" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F18" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G18" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="40"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="178"/>
-      <c r="B17" t="s">
+      <c r="H18" s="40"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="178"/>
+      <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E19" t="s">
         <v>49</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F19" t="s">
         <v>13</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42" t="s">
+    <row r="20">
+      <c r="A20" s="41"/>
+      <c r="B20" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45" t="s">
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G20" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="48"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="56"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="57"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="64"/>
+      <c r="H20" s="48"/>
     </row>
     <row r="21">
-      <c r="A21" s="65"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="72"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="56"/>
     </row>
     <row r="22">
-      <c r="A22" s="73"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="80"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="64"/>
     </row>
     <row r="23">
-      <c r="A23" s="81"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="88"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="72"/>
     </row>
     <row r="24">
-      <c r="A24" s="89"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="96"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="80"/>
     </row>
     <row r="25">
-      <c r="A25" s="97"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="104"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="88"/>
     </row>
     <row r="26">
-      <c r="A26" s="105"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="112"/>
+      <c r="A26" s="89"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="96"/>
     </row>
     <row r="27">
-      <c r="A27" s="113"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="120"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="104"/>
     </row>
     <row r="28">
-      <c r="A28" s="121"/>
-      <c r="B28" s="122"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="128"/>
+      <c r="A28" s="105"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="112"/>
     </row>
     <row r="29">
-      <c r="A29" s="129"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="136"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="120"/>
     </row>
     <row r="30">
-      <c r="A30" s="137"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="144"/>
+      <c r="A30" s="121"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="128"/>
     </row>
     <row r="31">
-      <c r="A31" s="145"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="152"/>
+      <c r="A31" s="129"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="136"/>
     </row>
     <row r="32">
-      <c r="A32" s="153"/>
-      <c r="B32" s="154"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="160"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="144"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="145"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="151"/>
+      <c r="H33" s="152"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="153"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="160"/>
     </row>
   </sheetData>
 </worksheet>
